--- a/src/main/java/suites/smoke/HyperTech_Automation_Test_Case.xlsx
+++ b/src/main/java/suites/smoke/HyperTech_Automation_Test_Case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nazmul.islam/Desktop/Personal/HyperTech/ht-selenium-framework/src/main/java/framework/suite/smoke/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nazmul.islam/Desktop/Personal/HyperTech/ht-selenium-framework/src/main/java/suites/smoke/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC04D76F-C30D-BC4F-80DF-13614CDB44D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C9E19F-1DBC-7F4B-8B2C-54B9C686316A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3500" windowWidth="23060" windowHeight="13540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
   <si>
     <t>TSID</t>
   </si>
@@ -226,6 +226,27 @@
   </si>
   <si>
     <t>terms</t>
+  </si>
+  <si>
+    <t>assertAttribute</t>
+  </si>
+  <si>
+    <t>assertCssValue</t>
+  </si>
+  <si>
+    <t>.container&gt;h2:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>id==title</t>
+  </si>
+  <si>
+    <t>color==rgba(33, 37, 41, 1)</t>
+  </si>
+  <si>
+    <t>Check title has id of "title"</t>
+  </si>
+  <si>
+    <t>Check title color hs expected vale</t>
   </si>
 </sst>
 </file>
@@ -653,10 +674,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z996"/>
+  <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -823,164 +844,164 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>22</v>
+      <c r="B5" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>25</v>
+      <c r="E5" s="16" t="s">
+        <v>70</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
+      <c r="F5" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>26</v>
+      <c r="B6" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>28</v>
+      <c r="E6" s="16" t="s">
+        <v>70</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
+      <c r="F6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>29</v>
+      <c r="B7" s="10" t="s">
+        <v>22</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>30</v>
+      <c r="C7" s="11" t="s">
+        <v>23</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>31</v>
+      <c r="D7" s="11" t="s">
+        <v>24</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>32</v>
+      <c r="E7" s="11" t="s">
+        <v>25</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>34</v>
+      <c r="B8" s="10" t="s">
+        <v>26</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
+      <c r="C8" s="11" t="s">
+        <v>27</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>31</v>
+      <c r="D8" s="11" t="s">
+        <v>24</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>35</v>
+      <c r="E8" s="11" t="s">
+        <v>28</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>37</v>
+      <c r="B9" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>30</v>
@@ -988,11 +1009,11 @@
       <c r="D9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>38</v>
+      <c r="E9" s="4" t="s">
+        <v>32</v>
       </c>
-      <c r="F9" s="3">
-        <v>5143005000</v>
+      <c r="F9" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1020,7 +1041,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>30</v>
@@ -1029,10 +1050,10 @@
         <v>31</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1059,99 +1080,99 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>42</v>
+      <c r="B11" s="4" t="s">
+        <v>37</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>43</v>
+      <c r="C11" s="4" t="s">
+        <v>30</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>44</v>
+      <c r="D11" s="4" t="s">
+        <v>31</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>45</v>
+      <c r="E11" s="11" t="s">
+        <v>38</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
+      <c r="F11" s="3">
+        <v>5143005000</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>46</v>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>47</v>
+      <c r="C12" s="4" t="s">
+        <v>30</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>24</v>
+      <c r="D12" s="4" t="s">
+        <v>31</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>48</v>
+      <c r="E12" s="4" t="s">
+        <v>40</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>49</v>
+      <c r="F12" s="4" t="s">
+        <v>41</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>24</v>
+      <c r="D13" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
-      <c r="F13" s="15">
-        <v>1</v>
-      </c>
+      <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
@@ -1178,18 +1199,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>67</v>
+      <c r="E14" s="15" t="s">
+        <v>48</v>
       </c>
-      <c r="F14" s="16"/>
+      <c r="F14" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
@@ -1216,18 +1239,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>57</v>
+      <c r="E15" s="15" t="s">
+        <v>48</v>
       </c>
-      <c r="F15" s="16"/>
+      <c r="F15" s="15">
+        <v>1</v>
+      </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
@@ -1253,171 +1278,191 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>58</v>
+      <c r="B16" s="15" t="s">
+        <v>52</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>43</v>
+      <c r="C16" s="15" t="s">
+        <v>53</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>44</v>
+      <c r="D16" s="15" t="s">
+        <v>54</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>59</v>
+      <c r="E16" s="11" t="s">
+        <v>67</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>60</v>
+      <c r="B17" s="15" t="s">
+        <v>55</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>61</v>
+      <c r="C17" s="15" t="s">
+        <v>56</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>44</v>
+      <c r="D17" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+    </row>
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="11" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-    </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="16"/>
@@ -2175,7 +2220,7 @@
       <c r="Y47" s="16"/>
       <c r="Z47" s="16"/>
     </row>
-    <row r="48" spans="1:26" ht="13">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -2203,7 +2248,7 @@
       <c r="Y48" s="16"/>
       <c r="Z48" s="16"/>
     </row>
-    <row r="49" spans="1:26" ht="13">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -28747,6 +28792,62 @@
       <c r="Y996" s="16"/>
       <c r="Z996" s="16"/>
     </row>
+    <row r="997" spans="1:26" ht="13">
+      <c r="A997" s="16"/>
+      <c r="B997" s="16"/>
+      <c r="C997" s="16"/>
+      <c r="D997" s="16"/>
+      <c r="E997" s="16"/>
+      <c r="F997" s="16"/>
+      <c r="G997" s="16"/>
+      <c r="H997" s="16"/>
+      <c r="I997" s="16"/>
+      <c r="J997" s="16"/>
+      <c r="K997" s="16"/>
+      <c r="L997" s="16"/>
+      <c r="M997" s="16"/>
+      <c r="N997" s="16"/>
+      <c r="O997" s="16"/>
+      <c r="P997" s="16"/>
+      <c r="Q997" s="16"/>
+      <c r="R997" s="16"/>
+      <c r="S997" s="16"/>
+      <c r="T997" s="16"/>
+      <c r="U997" s="16"/>
+      <c r="V997" s="16"/>
+      <c r="W997" s="16"/>
+      <c r="X997" s="16"/>
+      <c r="Y997" s="16"/>
+      <c r="Z997" s="16"/>
+    </row>
+    <row r="998" spans="1:26" ht="13">
+      <c r="A998" s="16"/>
+      <c r="B998" s="16"/>
+      <c r="C998" s="16"/>
+      <c r="D998" s="16"/>
+      <c r="E998" s="16"/>
+      <c r="F998" s="16"/>
+      <c r="G998" s="16"/>
+      <c r="H998" s="16"/>
+      <c r="I998" s="16"/>
+      <c r="J998" s="16"/>
+      <c r="K998" s="16"/>
+      <c r="L998" s="16"/>
+      <c r="M998" s="16"/>
+      <c r="N998" s="16"/>
+      <c r="O998" s="16"/>
+      <c r="P998" s="16"/>
+      <c r="Q998" s="16"/>
+      <c r="R998" s="16"/>
+      <c r="S998" s="16"/>
+      <c r="T998" s="16"/>
+      <c r="U998" s="16"/>
+      <c r="V998" s="16"/>
+      <c r="W998" s="16"/>
+      <c r="X998" s="16"/>
+      <c r="Y998" s="16"/>
+      <c r="Z998" s="16"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/src/main/java/suites/smoke/HyperTech_Automation_Test_Case.xlsx
+++ b/src/main/java/suites/smoke/HyperTech_Automation_Test_Case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nazmul.islam/Desktop/Personal/HyperTech/ht-selenium-framework/src/main/java/suites/smoke/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C9E19F-1DBC-7F4B-8B2C-54B9C686316A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBFABB2-D2AA-4943-939F-CA923BD5E11B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3500" windowWidth="23060" windowHeight="13540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3500" windowWidth="23060" windowHeight="13540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS" sheetId="1" r:id="rId1"/>
@@ -583,8 +583,8 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -676,7 +676,7 @@
   </sheetPr>
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
